--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1929338.269567367</v>
+        <v>2004867.939232172</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -659,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>61.4954412004503</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>102.91951315862</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,16 +709,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>52.52527498097917</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>266.5469181787403</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>29.61515545187508</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.9608410339006</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>20.33297654915539</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>297.8791232689996</v>
+        <v>284.2714565048808</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1294,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>65.25024693872075</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>89.83938363460548</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1537,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>41.92656778835364</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1585,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>128.2693160379187</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>21.86696197154526</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>111.8652689647489</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>136.9575509524583</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2479,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>57.64843562452468</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>6.30003116274762</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.6984576579872</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>27.55584844405772</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.4322165318416</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>75.43458761174553</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3007,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>154.6220812879148</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>204.4368981413427</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>174.3062600431768</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>6.34865682961755</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3718,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>135.5535868730193</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>105.6571329437492</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>194.8745056678679</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1526.106027515566</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="C2" t="n">
-        <v>1526.106027515566</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1526.106027515566</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1140.317774917322</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>729.3318701277142</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>311.3680620259011</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y2" t="n">
-        <v>1526.106027515566</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="3">
@@ -4413,13 +4415,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>645.6562317459358</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>431.3678085640985</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1152.132006003442</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1152.132006003442</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1152.132006003442</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1152.132006003442</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>741.1461012138345</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>323.1822931120214</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2612.206103112478</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2393.571436084541</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2139.809650722632</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1808.746763379062</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>1808.746763379062</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.746763379062</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.746763379062</v>
+        <v>1538.731846067564</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>565.5422760913831</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>396.6060931634762</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
         <v>99.59950625323012</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.1841540113768</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2113.174258592771</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1723.03492661696</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4886,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>323.2572191628421</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="C10" t="n">
-        <v>323.2572191628421</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628421</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>323.2572191628421</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V10" t="n">
-        <v>323.2572191628421</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W10" t="n">
-        <v>323.2572191628421</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X10" t="n">
-        <v>323.2572191628421</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y10" t="n">
-        <v>323.2572191628421</v>
+        <v>484.4236418782189</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5023,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,10 +5059,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861153</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5494927582084</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>549.4328533458727</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>401.5197597634796</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>401.5197597634796</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5233,16 +5235,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5364,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.9573788353326</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C16" t="n">
-        <v>394.9573788353326</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>843.7395088768801</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>615.7499579788628</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y16" t="n">
-        <v>394.9573788353326</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="17">
@@ -5507,13 +5509,13 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514085</v>
@@ -5601,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5610,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>379.1484955647068</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C19" t="n">
-        <v>210.2123126367999</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>210.2123126367999</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>210.2123126367999</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>210.2123126367999</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1360.575309999864</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.579090436494</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X19" t="n">
-        <v>781.5895395384766</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y19" t="n">
-        <v>560.7969603949465</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,28 +5752,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5783,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5938,16 +5940,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5966,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6084,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3686.322319899659</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="C25" t="n">
-        <v>3517.386136971752</v>
+        <v>569.7858139763533</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916677</v>
+        <v>419.6691745640176</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916677</v>
+        <v>271.7560809816245</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014293</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>4606.170084808407</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>4316.752914771446</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X25" t="n">
-        <v>4088.763363873429</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y25" t="n">
-        <v>3867.970784729899</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="26">
@@ -6209,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>3525.606699852205</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>3959.296496892129</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>825.3747459653033</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3747459653033</v>
+        <v>272.964375390212</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2581065529675</v>
+        <v>272.964375390212</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>125.0512818078189</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>125.0512818078189</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>125.0512818078189</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6412,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.499100520942</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.7065213774116</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3443.999848753676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3751.319982033638</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>4081.18260969767</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4360.722674916367</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>528.105874218302</v>
+        <v>510.5251492115494</v>
       </c>
       <c r="C31" t="n">
-        <v>359.1696912903951</v>
+        <v>341.5889662836425</v>
       </c>
       <c r="D31" t="n">
-        <v>359.1696912903951</v>
+        <v>341.5889662836425</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>341.5889662836425</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>341.5889662836425</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>173.4136446034632</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>675.007103038344</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>675.007103038344</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X31" t="n">
-        <v>675.007103038344</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y31" t="n">
-        <v>675.007103038344</v>
+        <v>510.5251492115494</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>882.7763375151577</v>
+        <v>515.3536117832383</v>
       </c>
       <c r="C34" t="n">
-        <v>713.8401545872508</v>
+        <v>515.3536117832383</v>
       </c>
       <c r="D34" t="n">
-        <v>563.7235151749151</v>
+        <v>515.3536117832383</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>515.3536117832383</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>515.3536117832383</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X34" t="n">
-        <v>1270.926719659885</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="Y34" t="n">
-        <v>1064.424802345397</v>
+        <v>515.3536117832383</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7023,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1322.84934122136</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T37" t="n">
-        <v>1322.84934122136</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1322.84934122136</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.84934122136</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>1322.84934122136</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>1322.84934122136</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7165,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028562</v>
@@ -7175,22 +7177,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>272.5660590645741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>103.6298761366672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>103.6298761366672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>103.6298761366672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>103.6298761366672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>103.6298761366672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>103.6298761366672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>675.007103038344</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>454.2145238948139</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7506,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y43" t="n">
-        <v>1278.123691414372</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805467</v>
@@ -7649,7 +7651,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7664,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>1102.153325455407</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>1102.153325455407</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>812.7361554184462</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>584.7466045204288</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8234,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,25 +9959,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>127.6461250100635</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208047</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>124.5670006750239</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>77.83138328065121</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>20.34615698029364</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>123.554086051386</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23710,10 +23712,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>54.62829949862872</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>84.59001010593099</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24367,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>90.96703739368768</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>139.1210168601836</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24418,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.13352252395009</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>121.3579799234784</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.39976365009574</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>73.4792407557906</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>11.87148717546279</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.14775521075205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>23.61454994042646</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>104.0705886346544</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>120.0525224452879</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>91.36284673070946</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="H2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="H2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="J2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="K2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.230645907</v>
       </c>
       <c r="N2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
         <v>527889.230645907</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26424,31 +26426,31 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="L4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="K4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36432.48351773396</v>
-      </c>
       <c r="M4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773395</v>
@@ -26457,7 +26459,7 @@
         <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26479,28 +26481,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301972.4494766907</v>
+        <v>-301972.4494766904</v>
       </c>
       <c r="C6" t="n">
         <v>287995.4297378535</v>
       </c>
       <c r="D6" t="n">
-        <v>287995.4297378536</v>
+        <v>287995.4297378537</v>
       </c>
       <c r="E6" t="n">
-        <v>-125690.6152974397</v>
+        <v>-125690.6152974398</v>
       </c>
       <c r="F6" t="n">
+        <v>399469.4211794564</v>
+      </c>
+      <c r="G6" t="n">
+        <v>399469.4211794563</v>
+      </c>
+      <c r="H6" t="n">
         <v>399469.4211794565</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>399469.4211794564</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>223046.2019868637</v>
+      </c>
+      <c r="K6" t="n">
         <v>399469.4211794564</v>
       </c>
-      <c r="I6" t="n">
-        <v>399469.4211794565</v>
-      </c>
-      <c r="J6" t="n">
-        <v>223046.2019868635</v>
-      </c>
-      <c r="K6" t="n">
-        <v>399469.4211794565</v>
-      </c>
       <c r="L6" t="n">
-        <v>399469.4211794562</v>
+        <v>399469.4211794563</v>
       </c>
       <c r="M6" t="n">
-        <v>264668.4059456191</v>
+        <v>264668.4059456192</v>
       </c>
       <c r="N6" t="n">
         <v>399469.4211794566</v>
       </c>
       <c r="O6" t="n">
-        <v>399469.4211794565</v>
+        <v>399469.4211794563</v>
       </c>
       <c r="P6" t="n">
-        <v>399469.4211794564</v>
+        <v>399469.4211794563</v>
       </c>
     </row>
   </sheetData>
@@ -26741,25 +26743,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26768,7 +26770,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>303.7774505705572</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>221.0032596057372</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>19.88405377167465</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>94.13991699917869</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>57.37585458561682</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>144.8005573570965</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.87113914803669</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>198.2516768029394</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.85471839448098</v>
+        <v>98.46238515859977</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>83.36522607949161</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>56.59457901196369</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34954,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>438.0705020605299</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336981</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523295</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2004867.939232172</v>
+        <v>1997850.924340461</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>61.4954412004503</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>150.8400357509148</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7.634490799661747</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>52.52527498097917</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>266.5469181787403</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0.5736554365940264</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.33297654915539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>284.2714565048808</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>129.1935566495327</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>89.83938363460548</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>126.5499088748946</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.5549124397896</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>21.86696197154526</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.525190330997</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>136.9575509524583</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>58.40168825977442</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>6.30003116274762</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>27.55584844405772</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>75.43458761174553</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>154.6220812879148</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>235.1477089251644</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>234.5175081001671</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3714,7 +3714,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>105.6571329437492</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>194.8745056678679</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2169.72394915887</v>
+        <v>1744.232431292459</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1375.269914352047</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1017.004215745297</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>631.2159631470527</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>220.2300583574451</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>206.306654296036</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>206.306654296036</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X2" t="n">
-        <v>2169.72394915887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y2" t="n">
-        <v>2169.72394915887</v>
+        <v>2130.832271356581</v>
       </c>
     </row>
     <row r="3">
@@ -4400,28 +4400,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>645.6562317459358</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>431.3678085640985</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1152.132006003442</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C5" t="n">
-        <v>1152.132006003442</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D5" t="n">
-        <v>1152.132006003442</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.132006003442</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>741.1461012138345</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>323.1822931120214</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2696.569641082269</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2696.569641082269</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2696.569641082269</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2696.569641082269</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304455</v>
+        <v>2696.569641082269</v>
       </c>
       <c r="X5" t="n">
-        <v>1928.871178043375</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="Y5" t="n">
-        <v>1538.731846067564</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="6">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
         <v>99.59950625323012</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>450.1841540113768</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1964.838184214438</v>
+        <v>609.3508327416162</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>995.9506728057379</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4889,13 +4889,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.4236418782189</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C10" t="n">
-        <v>484.4236418782189</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D10" t="n">
-        <v>484.4236418782189</v>
+        <v>227.427697035952</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>227.427697035952</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>227.427697035952</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>167.8887746690278</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>316.9584588710876</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.84934122136</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.84934122136</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.84934122136</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="14">
@@ -5281,16 +5281,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5360,22 +5360,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.4856756861153</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C16" t="n">
-        <v>699.5494927582084</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>549.4328533458727</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>549.4328533458727</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1091.075318305807</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>801.6581482688464</v>
       </c>
       <c r="X16" t="n">
-        <v>1270.926719659885</v>
+        <v>573.668597370829</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.134140516355</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1360.575309999864</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1071.446671213422</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>816.762183007535</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>738.7219969042602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>569.7858139763533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>419.6691745640176</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>271.7560809816245</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3525.606699852205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3959.296496892129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>272.964375390212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>272.964375390212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>125.0512818078189</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>125.0512818078189</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>125.0512818078189</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>441.900558318119</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>510.5251492115494</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>341.5889662836425</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D31" t="n">
-        <v>341.5889662836425</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E31" t="n">
-        <v>341.5889662836425</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F31" t="n">
-        <v>341.5889662836425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>173.4136446034632</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6660,13 +6660,13 @@
         <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>731.3177283550796</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>731.3177283550796</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>510.5251492115494</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
@@ -6703,22 +6703,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>515.3536117832383</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C34" t="n">
-        <v>515.3536117832383</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D34" t="n">
-        <v>515.3536117832383</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E34" t="n">
-        <v>515.3536117832383</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>515.3536117832383</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
         <v>359.1696912903951</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>964.1357418247858</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="X34" t="n">
-        <v>736.1461909267684</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.3536117832383</v>
+        <v>972.2646934632137</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7022,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="38">
@@ -7156,43 +7156,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7362,16 +7362,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,22 +7396,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>385.5899330013834</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7651,7 +7651,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1102.153325455407</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1102.153325455407</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>812.7361554184462</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,10 +8780,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>369.089388049373</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>127.6461250100635</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208047</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>77.83138328065121</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>27.02974091230521</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>123.554086051386</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>134.612452992831</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>84.59001010593099</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>227.8356641388029</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>139.1210168601836</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>121.3579799234784</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>79.43092547709131</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>73.4792407557906</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>11.87148717546279</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>51.37528941142656</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>51.71984429841021</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>120.0525224452879</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>91.36284673070946</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876357.1682632323</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="H2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="K2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="I2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.230645907</v>
-      </c>
       <c r="L2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="N2" t="n">
         <v>527889.2306459069</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459071</v>
       </c>
       <c r="O2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26438,28 +26438,28 @@
         <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="J4" t="n">
         <v>36432.48351773396</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36432.48351773394</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="M4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="O4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="M4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>36432.48351773396</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26490,19 +26490,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-301972.4494766904</v>
       </c>
       <c r="C6" t="n">
-        <v>287995.4297378535</v>
+        <v>287995.4297378536</v>
       </c>
       <c r="D6" t="n">
-        <v>287995.4297378537</v>
+        <v>287995.4297378538</v>
       </c>
       <c r="E6" t="n">
-        <v>-125690.6152974398</v>
+        <v>-126665.2065571611</v>
       </c>
       <c r="F6" t="n">
-        <v>399469.4211794564</v>
+        <v>398494.8299197349</v>
       </c>
       <c r="G6" t="n">
-        <v>399469.4211794563</v>
+        <v>398494.8299197346</v>
       </c>
       <c r="H6" t="n">
-        <v>399469.4211794565</v>
+        <v>398494.8299197347</v>
       </c>
       <c r="I6" t="n">
-        <v>399469.4211794564</v>
+        <v>398494.8299197346</v>
       </c>
       <c r="J6" t="n">
-        <v>223046.2019868637</v>
+        <v>222071.6107271418</v>
       </c>
       <c r="K6" t="n">
-        <v>399469.4211794564</v>
+        <v>398494.8299197349</v>
       </c>
       <c r="L6" t="n">
-        <v>399469.4211794563</v>
+        <v>398494.8299197345</v>
       </c>
       <c r="M6" t="n">
-        <v>264668.4059456192</v>
+        <v>263693.8146858973</v>
       </c>
       <c r="N6" t="n">
-        <v>399469.4211794566</v>
+        <v>398494.8299197346</v>
       </c>
       <c r="O6" t="n">
-        <v>399469.4211794563</v>
+        <v>398494.8299197347</v>
       </c>
       <c r="P6" t="n">
-        <v>399469.4211794563</v>
+        <v>398494.8299197346</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26758,10 +26758,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26770,7 +26770,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>303.7774505705572</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.091280493946414</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>94.13991699917869</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>57.37585458561682</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,10 +27666,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>173.8420573723775</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>141.7069916148869</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.2516768029394</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.46238515859977</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>236.0793351214748</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>56.59457901196369</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>40.75989338415627</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>71.38553859468877</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35728,10 +35728,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>618.3470930053974</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35740,13 +35740,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>438.0705020605299</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523295</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1997850.924340461</v>
+        <v>2002790.187189493</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.83780061</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>116.656332317298</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150.8400357509148</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>7.634490799661747</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>396.5357626327199</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5736554365940264</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>28.11374845278241</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,10 +1071,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>14.46389722690827</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>129.1935566495327</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>60.46179076613138</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>126.5499088748946</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>139.8939792152985</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.5549124397896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>90.15573371553764</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.525190330997</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>58.40168825977442</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>5.107731335945625</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722542</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002149</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>172.7067178467367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>132.5202535129922</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002151</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>235.1477089251644</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113172</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.65811021292805</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>234.5175081001671</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151892</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3228038217186</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1744.232431292459</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>1375.269914352047</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1017.004215745297</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>631.2159631470527</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>220.2300583574451</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>206.306654296036</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>206.306654296036</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X2" t="n">
-        <v>2520.971603332393</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="Y2" t="n">
-        <v>2130.832271356581</v>
+        <v>2267.209817970484</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>377.5443364482876</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
         <v>369.8327295799424</v>
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2323.103882821189</v>
+        <v>1353.10866026757</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1353.10866026757</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1353.10866026757</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1353.10866026757</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2696.569641082269</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2696.569641082269</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2696.569641082269</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2696.569641082269</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2696.569641082269</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.103882821189</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>2323.103882821189</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4704,22 +4704,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>699.731258496553</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>699.731258496553</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="F7" t="n">
-        <v>283.209303713795</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521274</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416162</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036446</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.09000478155</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057379</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,19 +4883,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482877</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>227.427697035952</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>227.427697035952</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>227.427697035952</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>484.4236418782193</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5038,49 +5038,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>167.8887746690278</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>316.9584588710876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>874.927113122792</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>585.5099430858313</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>585.5099430858313</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y13" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="14">
@@ -5278,28 +5278,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5360,22 +5360,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.0201325405893</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1296.774769427265</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1296.774769427265</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1296.774769427265</v>
       </c>
       <c r="V16" t="n">
-        <v>1091.075318305807</v>
+        <v>1296.774769427265</v>
       </c>
       <c r="W16" t="n">
-        <v>801.6581482688464</v>
+        <v>1007.357599390305</v>
       </c>
       <c r="X16" t="n">
-        <v>573.668597370829</v>
+        <v>779.3680484922876</v>
       </c>
       <c r="Y16" t="n">
-        <v>573.668597370829</v>
+        <v>558.5754693487575</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5509,34 +5509,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5600,22 +5600,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5700,7 +5700,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
         <v>1158.436939387592</v>
@@ -5752,28 +5752,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.9246662551</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1185.240178049213</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>895.8230080122524</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>667.8334571142351</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.040877970705</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,40 +5974,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550595</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610184</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003433</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207823</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014286</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231256</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014186</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465294</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121723</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851609</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590529</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614717</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636232</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>325.206642358303</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
     </row>
     <row r="29">
@@ -6442,49 +6442,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6578,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.9110074201016</v>
+        <v>415.810421592522</v>
       </c>
       <c r="C31" t="n">
-        <v>213.9110074201016</v>
+        <v>415.810421592522</v>
       </c>
       <c r="D31" t="n">
-        <v>213.9110074201016</v>
+        <v>415.810421592522</v>
       </c>
       <c r="E31" t="n">
-        <v>213.9110074201016</v>
+        <v>415.810421592522</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>415.810421592522</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6621,52 +6621,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347406</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>986.0022165609639</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>731.3177283550771</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>731.3177283550771</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.9110074201016</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823868</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514156</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115527</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395488</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.90154205952</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278216</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>972.2646934632137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6931,37 +6931,37 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>306.401003439576</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>306.401003439576</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>306.401003439576</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>158.4879098571829</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>158.4879098571829</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>158.4879098571829</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>158.4879098571829</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="U37" t="n">
-        <v>1038.244483529058</v>
+        <v>1009.86762168701</v>
       </c>
       <c r="V37" t="n">
-        <v>783.5599953231707</v>
+        <v>755.1831334811235</v>
       </c>
       <c r="W37" t="n">
-        <v>494.1428252862101</v>
+        <v>755.1831334811235</v>
       </c>
       <c r="X37" t="n">
-        <v>266.1532743881928</v>
+        <v>527.1935825831061</v>
       </c>
       <c r="Y37" t="n">
-        <v>266.1532743881928</v>
+        <v>306.401003439576</v>
       </c>
     </row>
     <row r="38">
@@ -7156,49 +7156,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155891</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823868</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514156</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7648,7 +7648,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7660,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>29.47535963978208</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>369.089388049373</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776807</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928411</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720825</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720825</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.02974091230521</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>107.7650762680656</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>134.612452992831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,10 +24180,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>227.8356641388029</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>143.8060970315905</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338844</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43092547709131</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>29.89407122271366</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>93.18940187604494</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338821</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>51.37528941142656</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>49.76113525134402</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>51.71984429841021</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338815</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>876357.1682632323</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632326</v>
       </c>
     </row>
     <row r="14">
@@ -26316,31 +26316,31 @@
         <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583911</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
         <v>527889.2306459072</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="H2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="K2" t="n">
         <v>527889.2306459069</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459071</v>
       </c>
       <c r="L2" t="n">
         <v>527889.2306459068</v>
@@ -26349,13 +26349,13 @@
         <v>527889.2306459068</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="O2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925914</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.078090463124681e-09</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36432.48351773433</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36432.48351773406</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36432.48351773406</v>
+      </c>
+      <c r="M4" t="n">
+        <v>36432.48351773406</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773406</v>
+      </c>
+      <c r="O4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="F4" t="n">
+      <c r="P4" t="n">
         <v>36432.48351773394</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="M4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871649</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301972.4494766904</v>
+        <v>-301972.4494766905</v>
       </c>
       <c r="C6" t="n">
-        <v>287995.4297378536</v>
+        <v>287995.4297378538</v>
       </c>
       <c r="D6" t="n">
-        <v>287995.4297378538</v>
+        <v>287995.4297378534</v>
       </c>
       <c r="E6" t="n">
-        <v>-126665.2065571611</v>
+        <v>-125788.0744234114</v>
       </c>
       <c r="F6" t="n">
-        <v>398494.8299197349</v>
+        <v>399371.9620534841</v>
       </c>
       <c r="G6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.962053484</v>
       </c>
       <c r="H6" t="n">
-        <v>398494.8299197347</v>
+        <v>399371.9620534843</v>
       </c>
       <c r="I6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.9620534844</v>
       </c>
       <c r="J6" t="n">
-        <v>222071.6107271418</v>
+        <v>222948.7428608923</v>
       </c>
       <c r="K6" t="n">
-        <v>398494.8299197349</v>
+        <v>399371.9620534841</v>
       </c>
       <c r="L6" t="n">
-        <v>398494.8299197345</v>
+        <v>399371.9620534839</v>
       </c>
       <c r="M6" t="n">
-        <v>263693.8146858973</v>
+        <v>264570.9468196468</v>
       </c>
       <c r="N6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.9620534839</v>
       </c>
       <c r="O6" t="n">
-        <v>398494.8299197347</v>
+        <v>399371.9620534831</v>
       </c>
       <c r="P6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.9620534843</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054540987</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054540987</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054540987</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054540987</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054540987</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-1.478160900053591e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.287272754554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>266.0775093461826</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>1.091280493946414</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>138.7994718469074</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>10.34028310899157</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>173.8420573723775</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>139.1330726458454</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>141.7069916148869</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>236.0793351214748</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>113.9539220428401</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>40.75989338415627</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>85.14112624278573</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>7.617018127348274e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932195</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.38553859468877</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>618.3470930053974</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092047</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221192</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415161</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533704</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415161</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
